--- a/ListasDatos/Jiménez Nieto Enrique_2021.xlsx
+++ b/ListasDatos/Jiménez Nieto Enrique_2021.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1345">
   <si>
     <t>NC</t>
   </si>
@@ -396,7 +396,7 @@
     <t>2721319968</t>
   </si>
   <si>
-    <t>2722287536</t>
+    <t>2721279750</t>
   </si>
   <si>
     <t>2722466200</t>
@@ -528,6 +528,9 @@
     <t>JOSE ADRIAN ALCÁNTARA CHICO</t>
   </si>
   <si>
+    <t>MIRIAM GONZÁLEZ AGUILAR</t>
+  </si>
+  <si>
     <t>OSVALDO CASTILLO GARCIA</t>
   </si>
   <si>
@@ -576,6 +579,9 @@
     <t>HILDA ZAPATA ARROYO</t>
   </si>
   <si>
+    <t>AIDA MÉNDOZA GONZÁLEZ</t>
+  </si>
+  <si>
     <t>VÍCTOR MIXCOHUA CASTILLO</t>
   </si>
   <si>
@@ -615,6 +621,12 @@
     <t>CESAR SANTILLANA LOPEZ</t>
   </si>
   <si>
+    <t>JOAQUÍN TREJO MEJÍA</t>
+  </si>
+  <si>
+    <t>miriamgonzi84@gmail.com</t>
+  </si>
+  <si>
     <t>evangelio0.1bgc@gmail.com</t>
   </si>
   <si>
@@ -690,6 +702,9 @@
     <t>2721634883</t>
   </si>
   <si>
+    <t>2721322441</t>
+  </si>
+  <si>
     <t>2721437274</t>
   </si>
   <si>
@@ -1038,7 +1053,7 @@
     <t>loganzurielm@gmail.com</t>
   </si>
   <si>
-    <t>yairprz26@gmail.com</t>
+    <t>yair26prz@gmail.com</t>
   </si>
   <si>
     <t>esrammm2503@gmail.com</t>
@@ -1257,6 +1272,9 @@
     <t>ROSAURA BONILLA BAUTISTA</t>
   </si>
   <si>
+    <t>BLANCA ESTELA SANDOVAL DÍAZ</t>
+  </si>
+  <si>
     <t>VALENTE CLEMENTE IXMATLAHUA</t>
   </si>
   <si>
@@ -1341,6 +1359,9 @@
     <t>VICENTE VALENCIA ZAMORA</t>
   </si>
   <si>
+    <t>MARÍA TEREZA RÓDRIGUEZ LOPEZ</t>
+  </si>
+  <si>
     <t>RAMIRO VEGA MUÑOZ</t>
   </si>
   <si>
@@ -1422,6 +1443,9 @@
     <t>Chirrin440@gmail.com</t>
   </si>
   <si>
+    <t>Maytequila133@gmail.com</t>
+  </si>
+  <si>
     <t>ramivega.1296@gmail.com</t>
   </si>
   <si>
@@ -1515,6 +1539,9 @@
     <t>2722132775</t>
   </si>
   <si>
+    <t>2721270249</t>
+  </si>
+  <si>
     <t>2721972586</t>
   </si>
   <si>
@@ -1809,7 +1836,7 @@
     <t>2722340871</t>
   </si>
   <si>
-    <t>5566865294</t>
+    <t>6631083766</t>
   </si>
   <si>
     <t>2721023506</t>
@@ -1920,7 +1947,7 @@
     <t>ELEAZAR CLEMENTE GALLARDO</t>
   </si>
   <si>
-    <t>FINADO FINADO FINADO</t>
+    <t>MARÍA FILOMENA HERNÁNDEZ CHONCOA</t>
   </si>
   <si>
     <t>ARTURO CONDADO SOSA</t>
@@ -1935,6 +1962,9 @@
     <t>MARTIN FLORIBERTO FLORENCIO REYES</t>
   </si>
   <si>
+    <t>GABRIELA FLORES DE LA CRUZ</t>
+  </si>
+  <si>
     <t>GUADALUPE VEGA LÓPEZ</t>
   </si>
   <si>
@@ -1968,7 +1998,7 @@
     <t>JOSÉ ALONSO MORALES LÓPEZ</t>
   </si>
   <si>
-    <t>JUAN MAURICIO LUNA HERNÁNDEZ</t>
+    <t>JUAN MAURICIO MUÑOZ MARTINEZ</t>
   </si>
   <si>
     <t>JOSÉ PORFIRIO OCTAVIANO BALDERAS</t>
@@ -2079,6 +2109,9 @@
     <t>2721222024</t>
   </si>
   <si>
+    <t>2722480188</t>
+  </si>
+  <si>
     <t>2721552625</t>
   </si>
   <si>
@@ -2091,6 +2124,9 @@
     <t>2721543169</t>
   </si>
   <si>
+    <t>2721135977</t>
+  </si>
+  <si>
     <t>2721354518</t>
   </si>
   <si>
@@ -2292,7 +2328,7 @@
     <t>herrerax484@gmail.com</t>
   </si>
   <si>
-    <t>karenjjimenez272@gmail.com</t>
+    <t>karenjjimenez02@gmail.com</t>
   </si>
   <si>
     <t>lopezamadorfernanda@gmail.com</t>
@@ -2361,7 +2397,7 @@
     <t>5623373226</t>
   </si>
   <si>
-    <t>6563386821</t>
+    <t>2721612552</t>
   </si>
   <si>
     <t>2722582314</t>
@@ -2454,6 +2490,9 @@
     <t>CENOBIO HERRERA REYES</t>
   </si>
   <si>
+    <t>MARIA ELENA SÁNCHEZ DATTOLI</t>
+  </si>
+  <si>
     <t>RITA AMADOR JIMÉNEZ</t>
   </si>
   <si>
@@ -2499,7 +2538,7 @@
     <t>GASTON XOTLANIHUA XOTLANIHUA</t>
   </si>
   <si>
-    <t>DESCONOCIDO DESCONOCIDO DESCONOCIDO</t>
+    <t>ABIGAIL XOTLANIHUA TLECUILE</t>
   </si>
   <si>
     <t>MAGDALENA ROBLES RAMÍREZ</t>
@@ -2520,6 +2559,9 @@
     <t>herreraoscar0889@gmail.com</t>
   </si>
   <si>
+    <t>SanchezDattoli@hotmail.com</t>
+  </si>
+  <si>
     <t>ritaamador16@gmail.com</t>
   </si>
   <si>
@@ -2571,6 +2613,9 @@
     <t>2722072939</t>
   </si>
   <si>
+    <t>2721574677</t>
+  </si>
+  <si>
     <t>2721813355</t>
   </si>
   <si>
@@ -2608,6 +2653,9 @@
   </si>
   <si>
     <t>2722079339</t>
+  </si>
+  <si>
+    <t>2722265954</t>
   </si>
   <si>
     <t>AYOCTLE</t>
@@ -4436,7 +4484,7 @@
         <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4458,6 +4506,15 @@
       <c r="F3" t="s">
         <v>125</v>
       </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -4482,13 +4539,13 @@
         <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4514,13 +4571,13 @@
         <v>157</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4546,13 +4603,13 @@
         <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4578,13 +4635,13 @@
         <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4610,7 +4667,7 @@
         <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
@@ -4636,13 +4693,13 @@
         <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4668,13 +4725,13 @@
         <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4700,13 +4757,13 @@
         <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4732,13 +4789,13 @@
         <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4764,13 +4821,13 @@
         <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4796,13 +4853,13 @@
         <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4828,10 +4885,10 @@
         <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4857,13 +4914,13 @@
         <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4889,13 +4946,13 @@
         <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4921,13 +4978,13 @@
         <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4953,10 +5010,10 @@
         <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
         <v>141</v>
@@ -4981,6 +5038,9 @@
       <c r="F20" t="s">
         <v>142</v>
       </c>
+      <c r="H20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
@@ -5005,13 +5065,13 @@
         <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5034,7 +5094,7 @@
         <v>144</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5060,10 +5120,10 @@
         <v>163</v>
       </c>
       <c r="H23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
         <v>163</v>
@@ -5089,13 +5149,13 @@
         <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5121,13 +5181,13 @@
         <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5153,13 +5213,13 @@
         <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5185,13 +5245,13 @@
         <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5217,13 +5277,13 @@
         <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5246,13 +5306,13 @@
         <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5278,13 +5338,13 @@
         <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5307,13 +5367,13 @@
         <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5339,13 +5399,13 @@
         <v>153</v>
       </c>
       <c r="H32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5368,10 +5428,10 @@
         <v>154</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5392,6 +5452,9 @@
       </c>
       <c r="F34" t="s">
         <v>155</v>
+      </c>
+      <c r="H34" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5453,28 +5516,28 @@
         <v>19330051920003</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5482,28 +5545,28 @@
         <v>19330051920005</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5511,28 +5574,28 @@
         <v>19330051920004</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I4" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5540,31 +5603,31 @@
         <v>19330051920006</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J5" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5575,25 +5638,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5601,19 +5664,28 @@
         <v>19330051920007</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>371</v>
+      </c>
+      <c r="H7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5621,31 +5693,31 @@
         <v>19330051920008</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I8" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="J8" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5653,31 +5725,31 @@
         <v>19330051920014</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="I9" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="J9" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5685,31 +5757,31 @@
         <v>19330051920016</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="J10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5717,28 +5789,28 @@
         <v>19330051920015</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G11" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5746,31 +5818,31 @@
         <v>19330051920012</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H12" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I12" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="J12" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5778,31 +5850,31 @@
         <v>19330051920011</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H13" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I13" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="J13" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5810,28 +5882,28 @@
         <v>19330051920009</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H14" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="I14" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5839,31 +5911,31 @@
         <v>19330051920010</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="I15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J15" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5874,28 +5946,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E16" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I16" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="J16" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5906,25 +5978,25 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="J17" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5935,25 +6007,25 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I18" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J18" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5961,28 +6033,28 @@
         <v>19330051920422</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H19" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="I19" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="J19" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5990,31 +6062,31 @@
         <v>19330051920020</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="I20" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="J20" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6022,25 +6094,25 @@
         <v>19330051920022</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6048,31 +6120,31 @@
         <v>19330051920021</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G22" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H22" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I22" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J22" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6080,31 +6152,31 @@
         <v>19330051920023</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I23" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="J23" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6112,28 +6184,28 @@
         <v>19330051920026</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H24" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="I24" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="J24" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6147,25 +6219,25 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F25" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6173,31 +6245,31 @@
         <v>19330051920025</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F26" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H26" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="I26" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6205,28 +6277,28 @@
         <v>19330051920027</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E27" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6234,28 +6306,28 @@
         <v>19330051920024</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F28" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H28" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6266,28 +6338,28 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G29" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J29" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6301,22 +6373,22 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G30" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H30" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6330,25 +6402,25 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G31" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I31" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6356,31 +6428,31 @@
         <v>19330051920031</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F32" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H32" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="I32" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="J32" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6388,31 +6460,31 @@
         <v>19330051920035</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I33" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="J33" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6420,28 +6492,28 @@
         <v>19330051920034</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D34" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F34" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I34" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J34" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6449,31 +6521,31 @@
         <v>19330051920038</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E35" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F35" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G35" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I35" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6481,31 +6553,31 @@
         <v>19330051920037</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G36" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H36" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="I36" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="J36" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6513,19 +6585,28 @@
         <v>19330051920036</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>396</v>
+        <v>401</v>
+      </c>
+      <c r="H37" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" t="s">
+        <v>474</v>
+      </c>
+      <c r="J37" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6533,28 +6614,28 @@
         <v>19330051920039</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H38" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="I38" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="J38" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6562,31 +6643,31 @@
         <v>19330051920040</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F39" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H39" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6648,31 +6729,31 @@
         <v>19330051920085</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E2" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G2" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="H2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="I2" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="J2" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6683,28 +6764,28 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E3" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F3" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="G3" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H3" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="I3" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="J3" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6712,28 +6793,28 @@
         <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E4" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="H4" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="I4" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="J4" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6747,25 +6828,25 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E5" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="G5" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="H5" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="I5" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="J5" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6779,25 +6860,25 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E6" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F6" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="G6" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="H6" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="I6" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="J6" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6805,31 +6886,31 @@
         <v>19330051920092</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="G7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="H7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="I7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="J7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6837,25 +6918,28 @@
         <v>19330051920091</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E8" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F8" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="G8" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="H8" t="s">
-        <v>633</v>
+        <v>642</v>
+      </c>
+      <c r="J8" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6863,28 +6947,28 @@
         <v>19330051920093</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E9" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="F9" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="H9" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="I9" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="J9" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6895,22 +6979,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D10" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E10" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F10" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="H10" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="J10" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6918,28 +7002,28 @@
         <v>19330051920095</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E11" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="F11" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="H11" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="I11" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="J11" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6947,31 +7031,31 @@
         <v>19330051920097</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E12" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F12" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="G12" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="H12" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="I12" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="J12" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6982,16 +7066,22 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E13" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F13" t="s">
-        <v>596</v>
+        <v>605</v>
+      </c>
+      <c r="H13" t="s">
+        <v>647</v>
+      </c>
+      <c r="J13" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7005,22 +7095,22 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E14" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="F14" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="G14" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="H14" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="J14" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7034,25 +7124,25 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E15" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F15" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="G15" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="H15" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="I15" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="J15" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7063,28 +7153,28 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E16" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="F16" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="G16" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="H16" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="I16" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="J16" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7098,22 +7188,22 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F17" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="H17" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I17" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="J17" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7124,28 +7214,28 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D18" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="G18" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H18" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="I18" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="J18" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7156,28 +7246,28 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D19" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="E19" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="F19" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="G19" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H19" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="I19" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="J19" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7185,31 +7275,31 @@
         <v>19330051920106</v>
       </c>
       <c r="B20" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E20" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F20" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="G20" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="H20" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="I20" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="J20" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7217,31 +7307,31 @@
         <v>19330051920107</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E21" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="G21" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="H21" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="I21" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="J21" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7249,28 +7339,28 @@
         <v>19330051920109</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E22" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F22" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="H22" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="I22" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="J22" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7281,28 +7371,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E23" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="F23" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="G23" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="H23" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="I23" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="J23" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7313,28 +7403,28 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E24" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F24" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="G24" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="H24" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="I24" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="J24" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7342,28 +7432,28 @@
         <v>19330051920001</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D25" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="E25" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F25" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="G25" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="H25" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="I25" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7371,28 +7461,28 @@
         <v>19330051920115</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F26" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H26" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="I26" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="J26" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7403,25 +7493,25 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D27" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="F27" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H27" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="I27" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="J27" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7429,31 +7519,31 @@
         <v>19330051920117</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E28" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F28" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="G28" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="H28" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="I28" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="J28" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7461,31 +7551,31 @@
         <v>19330051920118</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E29" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F29" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="G29" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="H29" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="I29" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="J29" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7493,31 +7583,31 @@
         <v>19330051920119</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E30" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F30" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="G30" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="H30" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="I30" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="J30" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7525,25 +7615,25 @@
         <v>19330051920120</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E31" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F31" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="H31" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="J31" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7551,28 +7641,28 @@
         <v>19330051920121</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C32" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D32" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E32" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F32" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G32" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="H32" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="J32" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7580,31 +7670,31 @@
         <v>19330051920122</v>
       </c>
       <c r="B33" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E33" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="F33" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="G33" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="H33" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="I33" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="J33" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -7666,31 +7756,31 @@
         <v>19330051920125</v>
       </c>
       <c r="B2" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="E2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="F2" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="G2" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="H2" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="I2" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="J2" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7698,31 +7788,31 @@
         <v>19330051920126</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C3" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="E3" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="F3" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="G3" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="H3" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="I3" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="J3" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7730,31 +7820,31 @@
         <v>19330051920127</v>
       </c>
       <c r="B4" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="E4" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="F4" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="G4" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="H4" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="I4" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="J4" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7765,25 +7855,25 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="D5" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E5" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="F5" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="H5" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="I5" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="J5" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7794,28 +7884,28 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="F6" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="G6" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="H6" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="I6" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="J6" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7823,19 +7913,28 @@
         <v>19330051920130</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="E7" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
-        <v>780</v>
+        <v>792</v>
+      </c>
+      <c r="H7" t="s">
+        <v>823</v>
+      </c>
+      <c r="I7" t="s">
+        <v>846</v>
+      </c>
+      <c r="J7" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7843,31 +7942,31 @@
         <v>19330051920380</v>
       </c>
       <c r="B8" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D8" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="E8" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="F8" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="G8" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="H8" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="I8" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="J8" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7875,31 +7974,31 @@
         <v>19330051920131</v>
       </c>
       <c r="B9" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C9" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="D9" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="E9" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F9" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G9" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="H9" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="I9" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="J9" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7913,19 +8012,19 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E10" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="F10" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="G10" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="H10" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7933,28 +8032,28 @@
         <v>19330051920133</v>
       </c>
       <c r="B11" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="F11" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="H11" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="I11" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="J11" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7962,31 +8061,31 @@
         <v>19330051920134</v>
       </c>
       <c r="B12" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C12" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="D12" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="E12" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="F12" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="G12" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="H12" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="I12" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="J12" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7994,28 +8093,28 @@
         <v>19330051920135</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="E13" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="F13" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="H13" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="I13" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="J13" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8023,28 +8122,28 @@
         <v>19330051920002</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="E14" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="F14" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="H14" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="I14" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="J14" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8052,31 +8151,31 @@
         <v>19330051920136</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="E15" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="F15" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="G15" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="H15" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="I15" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="J15" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8087,28 +8186,28 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D16" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E16" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="F16" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="G16" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="H16" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="I16" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="J16" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8116,31 +8215,31 @@
         <v>19330051920140</v>
       </c>
       <c r="B17" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="F17" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="G17" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="H17" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="I17" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="J17" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8148,31 +8247,31 @@
         <v>19330051920139</v>
       </c>
       <c r="B18" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="C18" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="D18" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="E18" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="F18" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="G18" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="H18" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="I18" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="J18" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8186,22 +8285,22 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E19" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="F19" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="H19" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="I19" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="J19" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8209,28 +8308,28 @@
         <v>19330051920141</v>
       </c>
       <c r="B20" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="E20" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="F20" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="G20" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="H20" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="J20" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8238,31 +8337,31 @@
         <v>19330051920144</v>
       </c>
       <c r="B21" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D21" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="E21" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="F21" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="G21" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="H21" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="I21" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="J21" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8270,31 +8369,31 @@
         <v>19330051920145</v>
       </c>
       <c r="B22" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="C22" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D22" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="E22" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="F22" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="G22" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="H22" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="I22" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="J22" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8302,25 +8401,31 @@
         <v>19330051920147</v>
       </c>
       <c r="B23" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="C23" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="D23" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="E23" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="F23" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="G23" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="H23" t="s">
-        <v>826</v>
+        <v>839</v>
+      </c>
+      <c r="I23" t="s">
+        <v>785</v>
+      </c>
+      <c r="J23" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8328,31 +8433,31 @@
         <v>19330051920431</v>
       </c>
       <c r="B24" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D24" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="E24" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="F24" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="G24" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="H24" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="I24" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="J24" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -8414,28 +8519,28 @@
         <v>19330051920148</v>
       </c>
       <c r="B2" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="F2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="H2" t="s">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="I2" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="J2" t="s">
-        <v>1069</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8443,31 +8548,31 @@
         <v>19330051920149</v>
       </c>
       <c r="B3" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="E3" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="F3" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="G3" t="s">
-        <v>987</v>
+        <v>1003</v>
       </c>
       <c r="H3" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="I3" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="J3" t="s">
-        <v>1070</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8475,31 +8580,31 @@
         <v>19330051920150</v>
       </c>
       <c r="B4" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="D4" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="E4" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="F4" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="G4" t="s">
-        <v>988</v>
+        <v>1004</v>
       </c>
       <c r="H4" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="I4" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
       <c r="J4" t="s">
-        <v>1071</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8507,31 +8612,31 @@
         <v>19330051920153</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="D5" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="E5" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="F5" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="G5" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="H5" t="s">
-        <v>1009</v>
+        <v>1025</v>
       </c>
       <c r="I5" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="J5" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8539,31 +8644,31 @@
         <v>19330051920152</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="E6" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="F6" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="G6" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="H6" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="I6" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="J6" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8571,28 +8676,28 @@
         <v>19330051920154</v>
       </c>
       <c r="B7" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="E7" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="F7" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="G7" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="H7" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="J7" t="s">
-        <v>1073</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8600,31 +8705,31 @@
         <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="E8" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="F8" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="G8" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="H8" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="I8" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
       <c r="J8" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8632,31 +8737,31 @@
         <v>19330051920151</v>
       </c>
       <c r="B9" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="E9" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
       <c r="F9" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="G9" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="H9" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="I9" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="J9" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8664,31 +8769,31 @@
         <v>19330051920157</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="E10" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="F10" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="G10" t="s">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="H10" t="s">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="I10" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="J10" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8699,28 +8804,28 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="D11" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="E11" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="F11" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="G11" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="H11" t="s">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="I11" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
       <c r="J11" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8728,28 +8833,28 @@
         <v>19330051920158</v>
       </c>
       <c r="B12" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="C12" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="D12" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="E12" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="F12" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="H12" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="I12" t="s">
-        <v>1050</v>
+        <v>1066</v>
       </c>
       <c r="J12" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8760,28 +8865,28 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="D13" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="E13" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="F13" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
       <c r="G13" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
       <c r="H13" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="I13" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="J13" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8792,25 +8897,25 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="D14" t="s">
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="F14" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
       <c r="H14" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="I14" t="s">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="J14" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8824,25 +8929,25 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="E15" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="F15" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="G15" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="H15" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="I15" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="J15" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8853,25 +8958,25 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D16" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E16" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="F16" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="G16" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="H16" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="J16" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8879,31 +8984,31 @@
         <v>19330051920162</v>
       </c>
       <c r="B17" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="C17" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="F17" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="G17" t="s">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="H17" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="I17" t="s">
-        <v>1053</v>
+        <v>1069</v>
       </c>
       <c r="J17" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8911,28 +9016,28 @@
         <v>19330051920155</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="D18" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="E18" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="F18" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
       <c r="H18" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="I18" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="J18" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8940,31 +9045,31 @@
         <v>19330051920163</v>
       </c>
       <c r="B19" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="E19" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="F19" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="G19" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="H19" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="I19" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="J19" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8972,31 +9077,31 @@
         <v>19330051920156</v>
       </c>
       <c r="B20" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="E20" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="F20" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="G20" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="H20" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
       <c r="I20" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="J20" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9004,28 +9109,28 @@
         <v>19330051920165</v>
       </c>
       <c r="B21" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="C21" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="D21" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
       <c r="E21" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="F21" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="G21" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="H21" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="J21" t="s">
-        <v>1086</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9033,25 +9138,25 @@
         <v>19330051920166</v>
       </c>
       <c r="B22" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="E22" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="F22" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="H22" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="I22" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9059,28 +9164,28 @@
         <v>19330051920168</v>
       </c>
       <c r="B23" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="E23" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="F23" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="H23" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="I23" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="J23" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9088,31 +9193,31 @@
         <v>19330051920170</v>
       </c>
       <c r="B24" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E24" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="F24" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="G24" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="H24" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="I24" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
       <c r="J24" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9120,31 +9225,31 @@
         <v>19330051920172</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="C25" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="D25" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E25" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="F25" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="G25" t="s">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="H25" t="s">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="I25" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="J25" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9152,31 +9257,31 @@
         <v>19330051920173</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="D26" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="E26" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="F26" t="s">
-        <v>976</v>
+        <v>992</v>
       </c>
       <c r="G26" t="s">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="H26" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="I26" t="s">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="J26" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9190,22 +9295,22 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="E27" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="F27" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
       <c r="H27" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="I27" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="J27" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9219,25 +9324,25 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E28" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="F28" t="s">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="G28" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="H28" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="I28" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="J28" t="s">
-        <v>1092</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -9248,28 +9353,28 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="D29" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
       <c r="E29" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="F29" t="s">
-        <v>979</v>
+        <v>995</v>
       </c>
       <c r="G29" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="H29" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="I29" t="s">
-        <v>1062</v>
+        <v>1078</v>
       </c>
       <c r="J29" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -9277,31 +9382,31 @@
         <v>19330051920178</v>
       </c>
       <c r="B30" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="C30" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="D30" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E30" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="F30" t="s">
-        <v>980</v>
+        <v>996</v>
       </c>
       <c r="G30" t="s">
-        <v>980</v>
+        <v>996</v>
       </c>
       <c r="H30" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="I30" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="J30" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -9309,31 +9414,31 @@
         <v>19330051920179</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="E31" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="F31" t="s">
-        <v>981</v>
+        <v>997</v>
       </c>
       <c r="G31" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="H31" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="I31" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="J31" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -9341,31 +9446,31 @@
         <v>19330051920181</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="D32" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="E32" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="F32" t="s">
-        <v>982</v>
+        <v>998</v>
       </c>
       <c r="G32" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="H32" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="I32" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="J32" t="s">
-        <v>1096</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -9373,31 +9478,31 @@
         <v>19330051920180</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="E33" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="F33" t="s">
-        <v>983</v>
+        <v>999</v>
       </c>
       <c r="G33" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="H33" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="I33" t="s">
-        <v>1066</v>
+        <v>1082</v>
       </c>
       <c r="J33" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -9405,31 +9510,31 @@
         <v>19330051920303</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="E34" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="F34" t="s">
-        <v>984</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="H34" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="I34" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="J34" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -9437,31 +9542,31 @@
         <v>19330051920182</v>
       </c>
       <c r="B35" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="C35" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="D35" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E35" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="F35" t="s">
-        <v>985</v>
+        <v>1001</v>
       </c>
       <c r="G35" t="s">
-        <v>985</v>
+        <v>1001</v>
       </c>
       <c r="H35" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="I35" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="J35" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -9469,31 +9574,31 @@
         <v>19330051920183</v>
       </c>
       <c r="B36" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="E36" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="F36" t="s">
-        <v>986</v>
+        <v>1002</v>
       </c>
       <c r="G36" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="H36" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="I36" t="s">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="J36" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -9555,28 +9660,28 @@
         <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="E2" t="s">
-        <v>1162</v>
+        <v>1178</v>
       </c>
       <c r="F2" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="H2" t="s">
-        <v>1242</v>
+        <v>1258</v>
       </c>
       <c r="I2" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="J2" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9584,31 +9689,31 @@
         <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="C3" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="D3" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="E3" t="s">
-        <v>1163</v>
+        <v>1179</v>
       </c>
       <c r="F3" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="G3" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="H3" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="I3" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="J3" t="s">
-        <v>1301</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9616,31 +9721,31 @@
         <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="C4" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="E4" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="F4" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="G4" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="H4" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="I4" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="J4" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9648,31 +9753,31 @@
         <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="E5" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="F5" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="G5" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="H5" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="I5" t="s">
-        <v>1279</v>
+        <v>1295</v>
       </c>
       <c r="J5" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9683,22 +9788,22 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
-        <v>1166</v>
+        <v>1182</v>
       </c>
       <c r="F6" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="G6" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="H6" t="s">
-        <v>1246</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9712,25 +9817,25 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="E7" t="s">
-        <v>1167</v>
+        <v>1183</v>
       </c>
       <c r="F7" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="G7" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="H7" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="I7" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="J7" t="s">
-        <v>1304</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9738,28 +9843,28 @@
         <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="C8" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="D8" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="E8" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="F8" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
       <c r="H8" t="s">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="I8" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="J8" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9770,25 +9875,25 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="D9" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="E9" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="F9" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="G9" t="s">
-        <v>1232</v>
+        <v>1248</v>
       </c>
       <c r="H9" t="s">
-        <v>1249</v>
+        <v>1265</v>
       </c>
       <c r="J9" t="s">
-        <v>1306</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9796,31 +9901,31 @@
         <v>19330051920195</v>
       </c>
       <c r="B10" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="C10" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
       <c r="D10" t="s">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="E10" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="F10" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="G10" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="H10" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="I10" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="J10" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9831,28 +9936,28 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="D11" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="E11" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="F11" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
       <c r="G11" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="H11" t="s">
-        <v>1251</v>
+        <v>1267</v>
       </c>
       <c r="I11" t="s">
-        <v>1283</v>
+        <v>1299</v>
       </c>
       <c r="J11" t="s">
-        <v>1308</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9860,28 +9965,28 @@
         <v>19330051920196</v>
       </c>
       <c r="B12" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="E12" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="F12" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
       <c r="H12" t="s">
-        <v>1252</v>
+        <v>1268</v>
       </c>
       <c r="I12" t="s">
-        <v>1284</v>
+        <v>1300</v>
       </c>
       <c r="J12" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9892,28 +9997,28 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
       <c r="D13" t="s">
-        <v>1142</v>
+        <v>1158</v>
       </c>
       <c r="E13" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
       <c r="F13" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="G13" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="H13" t="s">
-        <v>1253</v>
+        <v>1269</v>
       </c>
       <c r="I13" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="J13" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9921,31 +10026,31 @@
         <v>19330051920199</v>
       </c>
       <c r="B14" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="E14" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="F14" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="G14" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="H14" t="s">
-        <v>1254</v>
+        <v>1270</v>
       </c>
       <c r="I14" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
       <c r="J14" t="s">
-        <v>1310</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9953,31 +10058,31 @@
         <v>19330051920200</v>
       </c>
       <c r="B15" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="C15" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="D15" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
       <c r="E15" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="F15" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="G15" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="H15" t="s">
-        <v>1255</v>
+        <v>1271</v>
       </c>
       <c r="I15" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="J15" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9988,28 +10093,28 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="D16" t="s">
-        <v>1145</v>
+        <v>1161</v>
       </c>
       <c r="E16" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="F16" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="G16" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="H16" t="s">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="I16" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
       <c r="J16" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10017,28 +10122,28 @@
         <v>19330051920202</v>
       </c>
       <c r="B17" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>1146</v>
+        <v>1162</v>
       </c>
       <c r="E17" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="F17" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="G17" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
       <c r="H17" t="s">
-        <v>1257</v>
+        <v>1273</v>
       </c>
       <c r="J17" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10046,28 +10151,28 @@
         <v>19330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="C18" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="D18" t="s">
-        <v>1147</v>
+        <v>1163</v>
       </c>
       <c r="E18" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
       <c r="F18" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
       <c r="H18" t="s">
-        <v>1258</v>
+        <v>1274</v>
       </c>
       <c r="I18" t="s">
-        <v>1289</v>
+        <v>1305</v>
       </c>
       <c r="J18" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10078,25 +10183,25 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="D19" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
       <c r="E19" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="F19" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="H19" t="s">
-        <v>1259</v>
+        <v>1275</v>
       </c>
       <c r="I19" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="J19" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10104,31 +10209,31 @@
         <v>19330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="D20" t="s">
-        <v>1149</v>
+        <v>1165</v>
       </c>
       <c r="E20" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="F20" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="G20" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="H20" t="s">
-        <v>1260</v>
+        <v>1276</v>
       </c>
       <c r="I20" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="J20" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10139,25 +10244,25 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="F21" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="H21" t="s">
-        <v>1261</v>
+        <v>1277</v>
       </c>
       <c r="I21" t="s">
-        <v>1290</v>
+        <v>1306</v>
       </c>
       <c r="J21" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10165,28 +10270,28 @@
         <v>19330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>1150</v>
+        <v>1166</v>
       </c>
       <c r="E22" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="F22" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="G22" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="H22" t="s">
-        <v>1262</v>
+        <v>1278</v>
       </c>
       <c r="J22" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10194,31 +10299,31 @@
         <v>19330051920211</v>
       </c>
       <c r="B23" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>1151</v>
+        <v>1167</v>
       </c>
       <c r="E23" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="F23" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="G23" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="H23" t="s">
-        <v>1263</v>
+        <v>1279</v>
       </c>
       <c r="I23" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="J23" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10232,25 +10337,25 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>1152</v>
+        <v>1168</v>
       </c>
       <c r="E24" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="F24" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
       <c r="G24" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
       <c r="H24" t="s">
-        <v>1264</v>
+        <v>1280</v>
       </c>
       <c r="I24" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="J24" t="s">
-        <v>1318</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10258,28 +10363,28 @@
         <v>19330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>1112</v>
+        <v>1128</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="E25" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="F25" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
       <c r="H25" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="I25" t="s">
-        <v>1293</v>
+        <v>1309</v>
       </c>
       <c r="J25" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10290,28 +10395,28 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="E26" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="G26" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="H26" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
       <c r="I26" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
       <c r="J26" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10322,28 +10427,28 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="D27" t="s">
-        <v>1154</v>
+        <v>1170</v>
       </c>
       <c r="E27" t="s">
-        <v>1187</v>
+        <v>1203</v>
       </c>
       <c r="F27" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="G27" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="H27" t="s">
-        <v>1267</v>
+        <v>1283</v>
       </c>
       <c r="I27" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="J27" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10351,25 +10456,25 @@
         <v>19330051920216</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D28" t="s">
-        <v>1155</v>
+        <v>1171</v>
       </c>
       <c r="E28" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="F28" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
       <c r="H28" t="s">
-        <v>1268</v>
+        <v>1284</v>
       </c>
       <c r="J28" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10377,31 +10482,31 @@
         <v>19330051920217</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="D29" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="E29" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="F29" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="G29" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="H29" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="I29" t="s">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="J29" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10409,31 +10514,31 @@
         <v>19330051920218</v>
       </c>
       <c r="B30" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="C30" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="D30" t="s">
-        <v>1156</v>
+        <v>1172</v>
       </c>
       <c r="E30" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="F30" t="s">
-        <v>1224</v>
+        <v>1240</v>
       </c>
       <c r="G30" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
       <c r="H30" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
       <c r="I30" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="J30" t="s">
-        <v>1323</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10441,25 +10546,25 @@
         <v>19330051920220</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="E31" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="F31" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
       <c r="H31" t="s">
-        <v>1271</v>
+        <v>1287</v>
       </c>
       <c r="J31" t="s">
-        <v>1324</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10467,31 +10572,31 @@
         <v>19330051920439</v>
       </c>
       <c r="B32" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>1158</v>
+        <v>1174</v>
       </c>
       <c r="E32" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="F32" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
       <c r="G32" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="H32" t="s">
-        <v>1272</v>
+        <v>1288</v>
       </c>
       <c r="I32" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="J32" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10499,25 +10604,25 @@
         <v>19330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="E33" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="H33" t="s">
-        <v>1273</v>
+        <v>1289</v>
       </c>
       <c r="J33" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -10525,28 +10630,28 @@
         <v>19330051920221</v>
       </c>
       <c r="B34" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C34" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="D34" t="s">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="E34" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="F34" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="H34" t="s">
-        <v>1274</v>
+        <v>1290</v>
       </c>
       <c r="I34" t="s">
-        <v>1298</v>
+        <v>1314</v>
       </c>
       <c r="J34" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -10554,28 +10659,28 @@
         <v>18330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>1161</v>
+        <v>1177</v>
       </c>
       <c r="E35" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
       <c r="F35" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
       <c r="H35" t="s">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="I35" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="J35" t="s">
-        <v>1328</v>
+        <v>1344</v>
       </c>
     </row>
   </sheetData>
